--- a/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC484BE-B7C1-4D4C-A19A-D76FFAB8AAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC4C07D-F429-44F6-8504-CDA3F2FCCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E5467E75-9548-4640-B5D9-221A3D4327B4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{755B3819-8485-4528-A349-D38885572DA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,210 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
@@ -146,9 +329,6 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,71%</t>
   </si>
   <si>
@@ -167,184 +347,58 @@
     <t>4,09%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -423,60 +477,6 @@
   </si>
   <si>
     <t>4,52%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0928537-61E6-4DCA-B17D-391D245E370C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F066A6E-1CB3-4E67-AB3F-070111A5F939}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>3294</v>
+        <v>28439</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1273,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>5755</v>
+        <v>25561</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>9048</v>
+        <v>53999</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1309,10 +1309,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>3831</v>
+        <v>6382</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1324,10 +1324,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>4392</v>
+        <v>5895</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1339,10 +1339,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>8222</v>
+        <v>12277</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1360,10 +1360,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1894</v>
+        <v>643</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -1375,34 +1375,34 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>5693</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>7586</v>
+        <v>643</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1411,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>179248</v>
+        <v>3239</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1576</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
-        <v>175</v>
-      </c>
-      <c r="I13" s="7">
-        <v>123131</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4816</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="7">
-        <v>381</v>
-      </c>
-      <c r="N13" s="7">
-        <v>302378</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1462,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>37539</v>
+        <v>2674</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>969</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29574</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3642</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>71</v>
-      </c>
-      <c r="N14" s="7">
-        <v>67114</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,99 +1513,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D16" s="7">
-        <v>643</v>
+        <v>179248</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7">
+        <v>175</v>
+      </c>
+      <c r="I16" s="7">
+        <v>123131</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>381</v>
+      </c>
+      <c r="N16" s="7">
+        <v>302378</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>643</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>68</v>
@@ -1617,10 +1617,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>3239</v>
+        <v>37539</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -1632,34 +1632,34 @@
         <v>71</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>1576</v>
+        <v>29574</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>4816</v>
+        <v>67114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,46 +1671,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2674</v>
+        <v>3294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>969</v>
+        <v>5755</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>3642</v>
+        <v>9048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1719,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>28439</v>
+        <v>3831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>25561</v>
+        <v>4392</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>53999</v>
+        <v>8222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,40 +1770,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>6382</v>
+        <v>1894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>5895</v>
+        <v>5693</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>12277</v>
+        <v>7586</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>100</v>
@@ -1821,49 +1821,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="D22" s="7">
-        <v>3936</v>
+        <v>207686</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>103</v>
@@ -1889,10 +1889,10 @@
         <v>105</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="I22" s="7">
-        <v>5755</v>
+        <v>148692</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>106</v>
@@ -1904,10 +1904,10 @@
         <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="N22" s="7">
-        <v>9691</v>
+        <v>356377</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>109</v>
@@ -1925,10 +1925,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7">
-        <v>7070</v>
+        <v>43921</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>112</v>
@@ -1940,10 +1940,10 @@
         <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>5968</v>
+        <v>35470</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>115</v>
@@ -1955,10 +1955,10 @@
         <v>117</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>13038</v>
+        <v>79391</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>118</v>
@@ -1976,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>4567</v>
+        <v>3936</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>121</v>
@@ -1991,34 +1991,34 @@
         <v>123</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>6661</v>
+        <v>5755</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>11229</v>
+        <v>9691</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2027,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>207686</v>
+        <v>7070</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>148692</v>
+        <v>5968</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>356377</v>
+        <v>13038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,40 +2078,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>43921</v>
+        <v>4567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>35470</v>
+        <v>6661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>79391</v>
+        <v>11229</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>144</v>
@@ -2135,13 +2135,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2150,13 +2150,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -2165,13 +2165,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC4C07D-F429-44F6-8504-CDA3F2FCCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADB9724-9B97-418F-942E-E92A61B3F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{755B3819-8485-4528-A349-D38885572DA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0B98A6-BF57-4712-B5A7-40C4BA53F43C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,418 +65,415 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,39 +580,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +664,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,13 +775,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -793,6 +783,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -857,19 +854,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F066A6E-1CB3-4E67-AB3F-070111A5F939}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BB5A32-10DD-4030-99A0-56A88B64E47D}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,49 +1275,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
-        <v>28439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>67</v>
-      </c>
-      <c r="N10" s="7">
-        <v>53999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1320,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1365,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1410,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1455,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1500,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>179248</v>
+        <v>3643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>123131</v>
+        <v>969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>302378</v>
+        <v>4611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1598,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>37539</v>
+        <v>4788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2401</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="7">
-        <v>29574</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>67114</v>
+        <v>7190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1649,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>643</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1933</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>3294</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5755</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="7">
-        <v>12</v>
-      </c>
       <c r="N18" s="7">
-        <v>9048</v>
+        <v>2576</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1700,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>3831</v>
+        <v>17168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>4392</v>
+        <v>11469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>8222</v>
+        <v>28636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1751,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>1894</v>
+        <v>73107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7">
-        <v>5693</v>
+        <v>54893</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="N20" s="7">
-        <v>7586</v>
+        <v>128001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,102 +1802,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>207686</v>
+        <v>925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>148692</v>
+        <v>5693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>356377</v>
+        <v>6617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1906,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>43921</v>
+        <v>2281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>35470</v>
+        <v>3567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>79391</v>
+        <v>5849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1957,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3294</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="7">
-        <v>3936</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
       <c r="I24" s="7">
-        <v>5755</v>
+        <v>3822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>9691</v>
+        <v>7115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2008,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>7070</v>
+        <v>26753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>5968</v>
+        <v>24001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>13038</v>
+        <v>50754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,49 +2059,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="D26" s="7">
-        <v>4567</v>
+        <v>134579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="I26" s="7">
-        <v>6661</v>
+        <v>93798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="N26" s="7">
-        <v>11229</v>
+        <v>228377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,55 +2110,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4567</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
+        <v>7</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6661</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" s="7">
+        <v>13</v>
+      </c>
+      <c r="N28" s="7">
+        <v>11229</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7070</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5968</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13038</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3936</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5755</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9691</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>49</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43921</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
+        <v>38</v>
+      </c>
+      <c r="I31" s="7">
+        <v>35470</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="7">
+        <v>87</v>
+      </c>
+      <c r="N31" s="7">
+        <v>79391</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>239</v>
+      </c>
+      <c r="D32" s="7">
+        <v>207686</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>209</v>
+      </c>
+      <c r="I32" s="7">
+        <v>148692</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="7">
+        <v>448</v>
+      </c>
+      <c r="N32" s="7">
+        <v>356377</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADB9724-9B97-418F-942E-E92A61B3F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAD1C6D-5EE6-4B36-844F-66243399AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0B98A6-BF57-4712-B5A7-40C4BA53F43C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F243B3AA-898C-4F45-A306-22F2C5A5B39D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -95,10 +95,10 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,6%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>3,35%</t>
@@ -134,343 +134,358 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>7,71%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -885,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BB5A32-10DD-4030-99A0-56A88B64E47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055EB1F9-0E5D-4795-9BA1-5051E3E9BA0B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,10 +1960,10 @@
         <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,10 +1981,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -1978,13 +1993,13 @@
         <v>3822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -1993,13 +2008,13 @@
         <v>7115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2029,13 @@
         <v>26753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2029,13 +2044,13 @@
         <v>24001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -2044,13 +2059,13 @@
         <v>50754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2080,13 @@
         <v>134579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2080,13 +2095,13 @@
         <v>93798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -2095,13 +2110,13 @@
         <v>228377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2184,13 @@
         <v>4567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2184,13 +2199,13 @@
         <v>6661</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -2199,13 +2214,13 @@
         <v>11229</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2235,13 @@
         <v>7070</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2235,13 +2250,13 @@
         <v>5968</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2250,13 +2265,13 @@
         <v>13038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2286,13 @@
         <v>3936</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2286,13 +2301,13 @@
         <v>5755</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -2301,13 +2316,13 @@
         <v>9691</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2337,13 @@
         <v>43921</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -2337,13 +2352,13 @@
         <v>35470</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>87</v>
@@ -2352,13 +2367,13 @@
         <v>79391</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2388,13 @@
         <v>207686</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>209</v>
@@ -2388,13 +2403,13 @@
         <v>148692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>448</v>
@@ -2403,13 +2418,13 @@
         <v>356377</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,7 +2480,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAD1C6D-5EE6-4B36-844F-66243399AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FFC1AC-926D-4CBD-8C06-2F151D1DB9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F243B3AA-898C-4F45-A306-22F2C5A5B39D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EF8C7595-54CE-4CE3-90EC-728170FA8E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
-  <si>
-    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="137">
+  <si>
+    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,400 +92,358 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -900,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055EB1F9-0E5D-4795-9BA1-5051E3E9BA0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9EA4B7-7467-4CC4-B2A4-2B4FC8EBE81A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1562,10 +1520,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>3643</v>
+        <v>40828</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1577,10 +1535,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>969</v>
+        <v>67835</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1592,10 +1550,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>4611</v>
+        <v>108662</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1613,10 +1571,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>4788</v>
+        <v>23613</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1628,10 +1586,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>2401</v>
+        <v>27215</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1643,10 +1601,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7">
-        <v>7190</v>
+        <v>50828</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1664,49 +1622,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>643</v>
+        <v>3047</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1933</v>
+        <v>2163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>2576</v>
+        <v>5210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,46 +1673,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>17168</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1158</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11469</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>28636</v>
+        <v>1158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -1766,49 +1724,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>73107</v>
+        <v>438</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>995</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="7">
-        <v>72</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54893</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1432</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M20" s="7">
-        <v>160</v>
-      </c>
-      <c r="N20" s="7">
-        <v>128001</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,102 +1775,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>925</v>
+        <v>79143</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7">
+        <v>119</v>
+      </c>
+      <c r="I22" s="7">
+        <v>110133</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5693</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>238</v>
+      </c>
+      <c r="N22" s="7">
+        <v>189277</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="7">
-        <v>7</v>
-      </c>
-      <c r="N22" s="7">
-        <v>6617</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,49 +1879,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7">
-        <v>2281</v>
+        <v>59329</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>55</v>
+      </c>
+      <c r="I23" s="7">
+        <v>49485</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3567</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>104</v>
+      </c>
+      <c r="N23" s="7">
+        <v>108815</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="7">
-        <v>8</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5849</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,49 +1930,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>3294</v>
+        <v>3631</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9005</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3822</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12636</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="7">
-        <v>9</v>
-      </c>
-      <c r="N24" s="7">
-        <v>7115</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,49 +1981,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>26753</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="7">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7">
-        <v>24001</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="7">
-        <v>51</v>
-      </c>
-      <c r="N25" s="7">
-        <v>50754</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +2032,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>134579</v>
+        <v>444</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3563</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4006</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="7">
-        <v>137</v>
-      </c>
-      <c r="I26" s="7">
-        <v>93798</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="7">
-        <v>288</v>
-      </c>
-      <c r="N26" s="7">
-        <v>228377</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2083,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D27" s="7">
-        <v>167832</v>
+        <v>142547</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172186</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>314733</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2136,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D28" s="7">
-        <v>4567</v>
+        <v>119971</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>202</v>
+      </c>
+      <c r="I28" s="7">
+        <v>177968</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="7">
+        <v>380</v>
+      </c>
+      <c r="N28" s="7">
+        <v>297939</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="7">
-        <v>7</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6661</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="7">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7">
-        <v>11229</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2187,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7">
-        <v>7070</v>
+        <v>82942</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7">
+        <v>76700</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>165</v>
+      </c>
+      <c r="N29" s="7">
+        <v>159642</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5968</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="7">
-        <v>16</v>
-      </c>
-      <c r="N29" s="7">
-        <v>13038</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,49 +2238,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>3936</v>
+        <v>6678</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11168</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7">
+        <v>22</v>
+      </c>
+      <c r="N30" s="7">
+        <v>17846</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="7">
-        <v>8</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5755</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M30" s="7">
-        <v>13</v>
-      </c>
-      <c r="N30" s="7">
-        <v>9691</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2289,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>43921</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>35470</v>
+        <v>1158</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>79391</v>
+        <v>1158</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2340,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>207686</v>
+        <v>881</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>148692</v>
+        <v>4557</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>356377</v>
+        <v>5438</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,54 +2391,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>271551</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>482023</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
